--- a/台账数据.xlsx
+++ b/台账数据.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>序号</t>
   </si>
@@ -83,7 +83,7 @@
     <t>大写报告时间</t>
   </si>
   <si>
-    <t>鑫诚报告号</t>
+    <t>评审公司报告号</t>
   </si>
   <si>
     <t>评审范围内容</t>
@@ -95,25 +95,46 @@
     <t>批复资金来源</t>
   </si>
   <si>
-    <t>淠史杭灌区（河南梅山片）续建配套与现代化改造项目</t>
-  </si>
-  <si>
-    <t>固始县水利局</t>
-  </si>
-  <si>
-    <t>河南水环境勘测设计有限公司</t>
-  </si>
-  <si>
-    <t>固财预评〔2024〕044号</t>
-  </si>
-  <si>
-    <t>鑫诚预审字〔2024〕第024号</t>
+    <t>某续建配套与现代化改造项目</t>
+  </si>
+  <si>
+    <t>某水利局</t>
+  </si>
+  <si>
+    <t>河南勘测设计有限公司</t>
+  </si>
+  <si>
+    <t>某财预评〔2024〕011号</t>
+  </si>
+  <si>
+    <t>某预审字〔2024〕第0001号</t>
   </si>
   <si>
     <t>渠道工程、桥涵工程、渡槽工程、闸室工程、斗门工程、信息化工程、电气工程、金属结构设备、施工临时工程。</t>
   </si>
   <si>
-    <t>依据固始县人民政府办公室文电处理签〔2024〕默认文号16740号批复，安排国债资金1.537亿元，已由河南省财政厅以豫财建〔2024〕1号文下达，剩余资金由地方配套。</t>
+    <t>依据县人民政府办公室文电处理签〔2024〕默认文号</t>
+  </si>
+  <si>
+    <t>河南省某桥隧改造项目</t>
+  </si>
+  <si>
+    <t>某公路事业发展中心</t>
+  </si>
+  <si>
+    <t>河南工程技术研究院有限公司</t>
+  </si>
+  <si>
+    <t>某财预评〔2023〕-322号</t>
+  </si>
+  <si>
+    <t>某预审字[2023]第0001号</t>
+  </si>
+  <si>
+    <t>裂缝修补，新建护栏、标志牌等。</t>
+  </si>
+  <si>
+    <t>依据财政局经济建设科31号文</t>
   </si>
 </sst>
 </file>
@@ -128,7 +149,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +160,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -153,22 +181,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -318,18 +343,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -644,172 +663,178 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1336,17 +1361,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="8.72727272727273" style="3"/>
-    <col min="2" max="2" width="39.7272727272727" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10.0818181818182" style="3" customWidth="1"/>
+    <col min="2" max="2" width="34.9090909090909" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.4545454545455" style="3" customWidth="1"/>
     <col min="4" max="4" width="15.8636363636364" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.0181818181818" style="3" customWidth="1"/>
     <col min="6" max="6" width="19.7272727272727" style="3" customWidth="1"/>
@@ -1362,9 +1387,9 @@
     <col min="16" max="16" width="16.7272727272727" style="3" customWidth="1"/>
     <col min="17" max="17" width="17.3" style="3" customWidth="1"/>
     <col min="18" max="18" width="16.2727272727273" style="3" customWidth="1"/>
-    <col min="19" max="19" width="17.3636363636364" style="3" customWidth="1"/>
+    <col min="19" max="19" width="31.7272727272727" style="3" customWidth="1"/>
     <col min="20" max="20" width="8.72727272727273" style="3"/>
-    <col min="21" max="21" width="13.4545454545455" style="3"/>
+    <col min="21" max="21" width="15.1818181818182" style="3"/>
     <col min="22" max="22" width="12.4545454545455" style="3" customWidth="1"/>
     <col min="23" max="16384" width="8.72727272727273" style="3"/>
   </cols>
@@ -1403,10 +1428,10 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="4" t="s">
@@ -1437,7 +1462,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="50" customHeight="1" spans="1:22">
+    <row r="2" s="2" customFormat="1" ht="59" customHeight="1" spans="1:22">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1454,63 +1479,136 @@
         <v>24</v>
       </c>
       <c r="F2" s="6">
-        <v>179745873.1</v>
+        <v>1797458.1</v>
       </c>
       <c r="G2" s="6">
-        <f>163291393.73</f>
-        <v>163291393.73</v>
+        <f>1632913.73</f>
+        <v>1632913.73</v>
       </c>
       <c r="H2" s="6">
-        <v>163291393.73</v>
-      </c>
-      <c r="I2" s="8" t="str">
+        <v>1632913.73</v>
+      </c>
+      <c r="I2" s="5" t="str">
         <f>IF(MOD(H2,1)=0,TEXT(INT(H2),"[DBNUM2]")&amp;"元整",TEXT(INT(H2),"[DBNUM2]")&amp;"元"&amp;TEXT(MID(H2,LEN(INT(H2))+2,1),"[DBNUM2]D角")&amp;TEXT(MID(H2,LEN(INT(H2))+3,1),"[DBNUM2]D分"))</f>
-        <v>壹亿陆仟叁佰贰拾玖万壹仟叁佰玖拾叁元柒角叁分</v>
-      </c>
-      <c r="J2" s="9">
+        <v>壹佰陆拾叁万贰仟玖佰壹拾叁元柒角叁分</v>
+      </c>
+      <c r="J2" s="6">
         <f>F2-H2</f>
-        <v>16454479.37</v>
+        <v>164544.37</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="12">
         <v>45335</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="12">
         <v>45340</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="12">
         <v>45339</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="12">
         <v>45339</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="12">
         <v>45340</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="12">
         <v>45340</v>
       </c>
-      <c r="R2" s="11" t="str">
+      <c r="R2" s="2" t="str">
         <f>TEXT(Q2,"[dbnum1]yyyy年m月d日")</f>
         <v>二〇二四年二月十八日</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="T2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="10">
+      <c r="U2" s="12">
         <f ca="1">NOW()</f>
-        <v>45346.3652314815</v>
+        <v>45346.731875</v>
       </c>
       <c r="V2" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" ht="44" customHeight="1"/>
+    <row r="3" s="2" customFormat="1" ht="48" spans="1:22">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="9">
+        <v>199792</v>
+      </c>
+      <c r="G3" s="10">
+        <v>151610</v>
+      </c>
+      <c r="H3" s="10">
+        <v>156280</v>
+      </c>
+      <c r="I3" s="5" t="str">
+        <f>IF(ABS(H3)&lt;0.005,"",IF(H3&lt;0,"负",)&amp;IF(INT(ABS(H3)),TEXT(INT(ABS(H3)),"[dbnum2]")&amp;"元",)&amp;IF(INT(ABS(H3)*10)-INT(ABS(H3))*10,TEXT(INT(ABS(H3)*10)-INT(ABS(H3))*10,"[dbnum2]")&amp;"角",IF(INT(ABS(H3))=ABS(H3),,IF(ABS(H3)&lt;0.1,,"零")))&amp;IF(ROUND(ABS(H3)*100-INT(ABS(H3)*10)*10,),TEXT(ROUND(ABS(H3)*100-INT(ABS(H3)*10)*10,),"[dbnum2]")&amp;"分","整"))</f>
+        <v>壹拾伍万陆仟贰佰捌拾元整</v>
+      </c>
+      <c r="J3" s="6">
+        <f>F3-H3</f>
+        <v>43512</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="12">
+        <v>45219</v>
+      </c>
+      <c r="M3" s="12">
+        <v>45225</v>
+      </c>
+      <c r="N3" s="12">
+        <v>45225</v>
+      </c>
+      <c r="O3" s="12">
+        <v>45230</v>
+      </c>
+      <c r="P3" s="12">
+        <v>45230</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>45244</v>
+      </c>
+      <c r="R3" s="2" t="str">
+        <f>TEXT(Q3,"[dbnum1]yyyy年m月d日")</f>
+        <v>二〇二三年十一月十四日</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="13">
+        <f ca="1">NOW()</f>
+        <v>45346.731875</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" ht="41" customHeight="1"/>
+    <row r="5" ht="44" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
